--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_214__Reeval_Sobol_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_214__Reeval_Sobol_Modell_1.2.xlsx
@@ -6328,10 +6328,10 @@
                   <c:v>91.20568084716797</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>99.88173675537109</c:v>
+                  <c:v>99.88174438476562</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>96.90764617919922</c:v>
+                  <c:v>96.90765380859375</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>101.7565002441406</c:v>
@@ -8591,7 +8591,7 @@
         <v>98.4423</v>
       </c>
       <c r="F72">
-        <v>99.88173675537109</v>
+        <v>99.88174438476562</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>89.2906</v>
       </c>
       <c r="F73">
-        <v>96.90764617919922</v>
+        <v>96.90765380859375</v>
       </c>
     </row>
     <row r="74" spans="1:6">
